--- a/biology/Médecine/Pierre_Royer/Pierre_Royer.xlsx
+++ b/biology/Médecine/Pierre_Royer/Pierre_Royer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Royer, né le 13 juin 1917 et mort le 20 janvier 1995[1], est un pédiatre et néphrologue français ayant eu une carrière hospitalo-universitaire à Paris. Élève de Robert Debré, il est l'un des fondateurs de l’école française de pédiatrie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Royer, né le 13 juin 1917 et mort le 20 janvier 1995, est un pédiatre et néphrologue français ayant eu une carrière hospitalo-universitaire à Paris. Élève de Robert Debré, il est l'un des fondateurs de l’école française de pédiatrie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son ouvrage Néphrologie pédiatrique, réédité pour sa troisième version en 1994[3] est pendant plusieurs décennies l'ouvrage de référence dans cette discipline dont il est considéré comme le fondateur[4].
-Élève de Robert Debré, il lui consacre la rédaction d'un article dans l'encyclopédia Universalis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son ouvrage Néphrologie pédiatrique, réédité pour sa troisième version en 1994 est pendant plusieurs décennies l'ouvrage de référence dans cette discipline dont il est considéré comme le fondateur.
+Élève de Robert Debré, il lui consacre la rédaction d'un article dans l'encyclopédia Universalis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À côté de son ouvrage néphrologie pédiatrique, rédigé avec son équipe et publié pour la première fois en 1973, il est aussi l'auteur de recherches en endocrinologie, spécialité à laquelle il apporte un éclairage original sur des sujets tels que  l'hypoaldostéronisme héréditaire, l'hypercalciurie idiopathique avec nanisme, l'insuffisance en hormone de croissance et les troubles métaboliques liés à l'insuffisance thyroïdienne. Il co-publie avec P. Fourman Calcium metabolism and the bone alors qu'il se penche sur les troubles du métabolisme du calcium[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À côté de son ouvrage néphrologie pédiatrique, rédigé avec son équipe et publié pour la première fois en 1973, il est aussi l'auteur de recherches en endocrinologie, spécialité à laquelle il apporte un éclairage original sur des sujets tels que  l'hypoaldostéronisme héréditaire, l'hypercalciurie idiopathique avec nanisme, l'insuffisance en hormone de croissance et les troubles métaboliques liés à l'insuffisance thyroïdienne. Il co-publie avec P. Fourman Calcium metabolism and the bone alors qu'il se penche sur les troubles du métabolisme du calcium.
 </t>
         </is>
       </c>
